--- a/DOM_Banner/output/dept0723/Debra Stern_2023.xlsx
+++ b/DOM_Banner/output/dept0723/Debra Stern_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310062070</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Respiratory Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311663240</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286750379</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385410816</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312067545</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386467575</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Virology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Society for Microbiology</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0723/Debra Stern_2023.xlsx
+++ b/DOM_Banner/output/dept0723/Debra Stern_2023.xlsx
@@ -447,57 +447,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Francesca Polverino, Debra A. Stern, Eric M. Snyder, Courtney M. Wheatley‐Guy, Surya P. Bhatt, Fernando D. Martínez, Stefano Guerra, Wayne J. Morgan</t>
+          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310062070</t>
+          <t>https://openalex.org/W4385410816</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
+          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Respiratory Medicine</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
+          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -534,47 +534,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
+          <t>Francesca Polverino, Debra A. Stern, Eric M. Snyder, Courtney M. Wheatley‐Guy, Surya P. Bhatt, Fernando D. Martínez, Stefano Guerra, Wayne J. Morgan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Pulmonary and Critical Care Medicine, Baylor College of Medicine, Houston, TX, 77030, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Geneticure, Rochester, MN, 55902, USA; Cardiovascular Diseases, Mayo Clinic Scottsdale, Scottsdale, AZ, 85259, USA; Division of Pulmonary, Allergy and Critical Care Medicine, University of Alabama at Birmingham, Birmingham, AL, 35924, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, 85719, USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4311663240</t>
+          <t>https://openalex.org/W4310062070</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
+          <t>Lower respiratory illnesses in childhood are associated with the presence of air trapping in early adulthood</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-15</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>Respiratory Medicine</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
+          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36508986</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
+          <t>https://doi.org/10.1016/j.rmed.2022.107062</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -621,27 +621,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stefano Guerra, Julie G. Ledford, Erik Melén, Iris Lavi, Anne-Elie Carsin, Debra A. Stern, Jing Zhai, Marta Vidal, Mariona Bustamante, Kenneth J. Addison, Renata G. Vallecillo, Dean Billheimer, Gerard H. Koppelman, Judith García-Aymerich, Nathanaël Lemonnier, Montserrat Fitó, Carlota Dobaño, Simon Kebede Merid, Inger Kull, Rosemary McEachan, John Wright, Leda Chatzi, Manolis Kogevinas, Daniela Porta, Silvia Narduzzi, Ferrán Ballester, Ana Esplugues, Carlos Zabaleta, Amaia Irizar, Jordi Sunyer, Marilyn Halonen, Jean Bousquet, Fernando D. Martínez, Josep M. Antó</t>
+          <t>Tara Carr, Debra A. Stern, Wayne J. Morgan, Stefano Guerra, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
+          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; tcarr@deptofmed.arizona.edu.; University of Arizona HSC, Tucson, Arizona, United States.; University of Arizona, Department of Pediatrics, Tucson, Arizona, United States.; University of Arizona, Tucson, United States.; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286750379</t>
+          <t>https://openalex.org/W4311663240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
+          <t>Elevated Childhood Insulin-related Asthma Is a Risk Factor for Reduced Lung Function</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
+          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36521027</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
+          <t>https://doi.org/10.1164/rccm.202209-1654le</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,27 +708,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nipasiri Voraphani, Debra A. Stern, Julie G. Ledford, Amber Spangenberg, Jing Zhai, Anne L. Wright, Wayne J. Morgan, Monica Kraft, Duane L. Sherrill, John A. Curtin, Clare Murray, Adnan Čustović, Inger Kull, Jenny Hallberg, Anna Bergström, Esther Herrera‐Luis, Marilyn Halonen, Fernando D. Martínez, Angela Simpson, Erik Melén, Stefano Guerra</t>
+          <t>Stefano Guerra, Julie G. Ledford, Erik Melén, Iris Lavi, Anne-Elie Carsin, Debra A. Stern, Jing Zhai, Marta Vidal, Mariona Bustamante, Kenneth J. Addison, Renata G. Vallecillo, Dean Billheimer, Gerard H. Koppelman, Judith Garcia‐Aymerich, Nathanaël Lemonnier, Montserrat Fitó, Carlota Dobaño, Simon Kebede Merid, Inger Kull, Rosemary McEachan, John Wright, Leda Chatzi, Manolis Kogevinas, Daniela Porta, Silvia Narduzzi, Ferrán Ballester, Ana Esplugues, Carlos Zabaleta, Amaia Irizar, Jordi Sunyer, Marilyn Halonen, Jean Bousquet, Fernando D. Martínez, Josep M. Antó</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Department of Pediatrics, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Imperial College London National Heart and Lung Institute, 90897, London, United Kingdom of Great Britain and Northern Ireland; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; Karolinska Institute Institute of Environmental Medicine, 193414, Stockholm, Sweden; University of La Laguna, 16749, Department of Biochemistry, Microbiology, Cell Biology and Genetics, La Laguna, Islas Canarias, Spain; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States; Division of Immunology, Immunity to Infection and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, United Kingdom;; Manchester Academic Health Science Centre and National Institute for Health and Care Research Biomedical Research Centre, Manchester University Hospitals National Health Service Foundation Trust, Manchester, United Kingdom;; Department of Clinical Sciences and Education, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Sachs’ Children and Youth Hospital, Stockholm, Sweden;; The University of Arizona Asthma &amp; Airway Disease Research Center, 577409, Tucson, Arizona, United States;</t>
+          <t>Asthma and Airway Disease Research Center,; ISGlobal, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Cellular and Molecular Medicine,; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Instituto de Salud Global Barcelona, Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Asthma and Airway Disease Research Center,; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Department of Molecular and Cellular Biology,; BIO5 Institute, and; Department of Epidemiology and Biostatistics, University of Arizona Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, Arizona;; University of Groningen, University Medical Center Groningen, Department of Pulmonology and Pediatric Allergy, Beatrix Children's Hospital, Groningen, Netherlands; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Institute for Advanced Biosciences, UGA-INSERM U1209-CNRS UMR5309, Site Santé, Allée des Alpes, 38700 La Tronche, France;; CIBER de Fisiopatología de la Obesidad y Nutricion (CIBEROBN), Institute of Health Carlos III, Madrid, Spain;; Cardiovascular Risk and Nutrition Group and; CIBER de Enfermedades Infecciosas (CIBERINFEC), Barcelona, Spain;; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Spain;; Department of Clinical Science and Education and; Department of Clinical Science and Education and; Sachs’ Children’s and Youth Hospital, Södersjukhuset, Karolinska Institutet, Stockholm, Sweden;; Bradford Institute for Health Research, Bradford, United Kingdom;; Bradford Institute for Health Research, Bradford, United Kingdom of Great Britain and Northern Ireland; Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; Department of Epidemiology, Lazio Regional Health Service, Rome, Italy;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; FISABIO–Universitat Jaume I–Universitat de València Joint Research Unit of Epidemiology and Environmental Health, Valencia, Spain;; Nursing School, Universitat de València, Valencia, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; Pediatrics Service, Hospital de Zumárraga, Gipuzkoa, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Group of Environmental Epidemiology and Child Development, Biodonostia Health Research Institute, San Sebastian, Spain;; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;; Asthma and Airway Disease Research Center,; Respiratory and Environmental Epidemiology Team, INSERM 1018, CESP Centre, Villejuif, France; University Hospital Montpellier, France; and; Asthma and Airway Disease Research Center,; CIBER Epidemiología y Salud Pública (CIBERESP), Instituto de Salud Carlos III, Madrid, Spain;; Hospital del Mar Medical Research Institute, Barcelona, Spain;; ISGlobal, Barcelona, Spain;; Universitat Pompeu Fabra, Barcelona, Spain;</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385410816</t>
+          <t>https://openalex.org/W4286750379</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Circulating CC16 and Asthma: A Population-based, Multicohort Study from Early Childhood through Adult Life</t>
+          <t>Creatine Kinase Is Decreased in Childhood Asthma</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37523710</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35876143</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202301-0041oc</t>
+          <t>https://doi.org/10.1164/rccm.202010-3746oc</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Philip Harber, Melissa Furlong, Debra A. Stern, Wayne J. Morgan, Anne L. Wright, Stefano Guerra, Fernando D. Martínez</t>
+          <t>Raffaella Nenna, Debra A. Stern, Tara Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312067545</t>
+          <t>https://openalex.org/W4386467575</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
+          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Annals of the American Thoracic Society</t>
+          <t>Journal of Virology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>American Society for Microbiology</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
+          <t>https://doi.org/10.1128/jvi.00767-23</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Raffaella Nenna, Debra A. Stern, Tara F. Carr, Amber Spangenberg, Anne L. Wright, Fernando D. Martínez, Marilyn Halonen</t>
+          <t>Philip Harber, Melissa Furlong, Debra A. Stern, Wayne J. Morgan, Anne L. Wright, Stefano Guerra, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Department of Maternal, Infantile, and Urological Services, Sapienza University of Rome , Rome, Italy; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA; Asthma and Airway Disease Research Center, University of Arizona , Tucson, Arizona, USA</t>
+          <t>Asthma and Airway Disease Research Center, and; Mel and Enid Zuckerman College of Public Health,; Mel and Enid Zuckerman College of Public Health,; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Department of Pediatrics, University of Arizona, Tucson, Arizona; Asthma and Airway Disease Research Center, and; Asthma and Airway Disease Research Center, and</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386467575</t>
+          <t>https://openalex.org/W4312067545</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prenatal exposure to RSV season influences first-year risk of RSV lower respiratory illness and RSV-specific immune responses assessed at birth</t>
+          <t>Association of Childhood Respiratory Status with Adult Occupational Exposures in a Birth Cohort</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Journal of Virology</t>
+          <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>American Society for Microbiology</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37671863</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36538681</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jvi.00767-23</t>
+          <t>https://doi.org/10.1513/annalsats.202204-293oc</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
